--- a/BookArbitrage.xlsx
+++ b/BookArbitrage.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="9180" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="14115" yWindow="-12585" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
@@ -135,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -224,6 +224,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -291,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -411,6 +431,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -419,8 +445,11 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3588,26 +3617,26 @@
           <t>Server</t>
         </is>
       </c>
-      <c r="I11" s="41" t="inlineStr">
+      <c r="I11" s="43" t="inlineStr">
         <is>
           <t>Moonguard</t>
         </is>
       </c>
-      <c r="J11" s="42" t="n"/>
-      <c r="K11" s="42" t="n"/>
-      <c r="L11" s="42" t="n"/>
-      <c r="M11" s="42" t="n"/>
-      <c r="N11" s="43" t="n"/>
-      <c r="O11" s="41" t="inlineStr">
+      <c r="J11" s="44" t="n"/>
+      <c r="K11" s="44" t="n"/>
+      <c r="L11" s="44" t="n"/>
+      <c r="M11" s="44" t="n"/>
+      <c r="N11" s="45" t="n"/>
+      <c r="O11" s="43" t="inlineStr">
         <is>
           <t>Stormrage</t>
         </is>
       </c>
-      <c r="P11" s="42" t="n"/>
-      <c r="Q11" s="42" t="n"/>
-      <c r="R11" s="42" t="n"/>
-      <c r="S11" s="42" t="n"/>
-      <c r="T11" s="43" t="n"/>
+      <c r="P11" s="44" t="n"/>
+      <c r="Q11" s="44" t="n"/>
+      <c r="R11" s="44" t="n"/>
+      <c r="S11" s="44" t="n"/>
+      <c r="T11" s="45" t="n"/>
     </row>
     <row r="12">
       <c r="H12" s="16" t="inlineStr">
@@ -5428,10 +5457,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:M23"/>
+  <dimension ref="B2:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5453,18 +5482,18 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="44" t="inlineStr">
+      <c r="B2" s="46" t="inlineStr">
         <is>
           <t>Enchanting</t>
         </is>
       </c>
-      <c r="C2" s="45" t="n"/>
-      <c r="D2" s="45" t="n"/>
-      <c r="E2" s="45" t="n"/>
-      <c r="F2" s="45" t="n"/>
-      <c r="G2" s="45" t="n"/>
-      <c r="H2" s="45" t="n"/>
-      <c r="I2" s="46" t="n"/>
+      <c r="C2" s="48" t="n"/>
+      <c r="D2" s="48" t="n"/>
+      <c r="E2" s="48" t="n"/>
+      <c r="F2" s="48" t="n"/>
+      <c r="G2" s="48" t="n"/>
+      <c r="H2" s="48" t="n"/>
+      <c r="I2" s="49" t="n"/>
       <c r="K2" s="34" t="inlineStr">
         <is>
           <t>Name</t>
@@ -5745,20 +5774,20 @@
         <v>3</v>
       </c>
       <c r="F9" s="40" t="n">
-        <v>3100</v>
+        <v>4299</v>
       </c>
       <c r="G9" s="40" t="inlineStr">
         <is>
-          <t>Kirin Tor</t>
+          <t>Feathermoon</t>
         </is>
       </c>
       <c r="H9" s="40" t="inlineStr">
         <is>
-          <t>Ragnaros</t>
+          <t>Moon Guard</t>
         </is>
       </c>
       <c r="I9" s="40" t="n">
-        <v>477.9</v>
+        <v>1934.05</v>
       </c>
       <c r="K9" s="7" t="inlineStr">
         <is>
@@ -5793,11 +5822,11 @@
         <v>6</v>
       </c>
       <c r="F10" s="40" t="n">
-        <v>12779.8</v>
+        <v>11799.6</v>
       </c>
       <c r="G10" s="40" t="inlineStr">
         <is>
-          <t>Area 52</t>
+          <t>Sargeras</t>
         </is>
       </c>
       <c r="H10" s="40" t="inlineStr">
@@ -5806,7 +5835,7 @@
         </is>
       </c>
       <c r="I10" s="40" t="n">
-        <v>8140.81</v>
+        <v>8209.610000000001</v>
       </c>
       <c r="K10" s="7" t="inlineStr">
         <is>
@@ -5879,20 +5908,20 @@
         <v>5</v>
       </c>
       <c r="F12" s="40" t="n">
-        <v>9000</v>
+        <v>99950</v>
       </c>
       <c r="G12" s="40" t="inlineStr">
         <is>
-          <t>Stormrage</t>
+          <t>Arthas</t>
         </is>
       </c>
       <c r="H12" s="40" t="inlineStr">
         <is>
-          <t>Moon Guard</t>
+          <t>Zul'jin</t>
         </is>
       </c>
       <c r="I12" s="40" t="n">
-        <v>4205.62</v>
+        <v>90452.23</v>
       </c>
       <c r="K12" s="7" t="inlineStr">
         <is>
@@ -6056,11 +6085,11 @@
         <v>4</v>
       </c>
       <c r="F18" s="40" t="n">
-        <v>17998.34</v>
+        <v>17099.39</v>
       </c>
       <c r="G18" s="40" t="inlineStr">
         <is>
-          <t>Emerald Dream</t>
+          <t>Moon Guard</t>
         </is>
       </c>
       <c r="H18" s="40" t="inlineStr">
@@ -6069,7 +6098,7 @@
         </is>
       </c>
       <c r="I18" s="40" t="n">
-        <v>10408.42</v>
+        <v>9843.43</v>
       </c>
     </row>
     <row r="19">
@@ -6090,20 +6119,20 @@
         <v>2</v>
       </c>
       <c r="F19" s="40" t="n">
-        <v>15199.32</v>
+        <v>11266.5</v>
       </c>
       <c r="G19" s="40" t="inlineStr">
         <is>
-          <t>Arthas</t>
+          <t>Moon Guard</t>
         </is>
       </c>
       <c r="H19" s="40" t="inlineStr">
         <is>
-          <t>Area 52</t>
+          <t>Proudmoore</t>
         </is>
       </c>
       <c r="I19" s="40" t="n">
-        <v>7939.35</v>
+        <v>3503.18</v>
       </c>
     </row>
     <row r="20">
@@ -6148,7 +6177,7 @@
         <v>4</v>
       </c>
       <c r="F21" s="40" t="n">
-        <v>69000.92999999999</v>
+        <v>28000.98</v>
       </c>
       <c r="G21" s="40" t="inlineStr">
         <is>
@@ -6157,11 +6186,11 @@
       </c>
       <c r="H21" s="40" t="inlineStr">
         <is>
-          <t>Dalaran</t>
+          <t>Proudmoore</t>
         </is>
       </c>
       <c r="I21" s="40" t="n">
-        <v>56552.88</v>
+        <v>17604.03</v>
       </c>
     </row>
     <row r="22">
@@ -6188,7 +6217,111 @@
       <c r="H22" s="40" t="n"/>
       <c r="I22" s="40" t="n"/>
     </row>
-    <row r="23"/>
+    <row r="23">
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t>Bone-Melted Faceplate</t>
+        </is>
+      </c>
+      <c r="C23" s="42" t="inlineStr">
+        <is>
+          <t>Ironwood Lumber</t>
+        </is>
+      </c>
+      <c r="D23" s="42" t="n">
+        <v>20</v>
+      </c>
+      <c r="E23" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>99999.99000000001</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Sargeras</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Proudmoore</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="41" t="inlineStr">
+        <is>
+          <t>glorious legplates</t>
+        </is>
+      </c>
+      <c r="C24" s="42" t="inlineStr">
+        <is>
+          <t>Ironwood Lumber</t>
+        </is>
+      </c>
+      <c r="D24" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>499999.98</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Chromaggus</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Zul'jin</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>419999.14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="41" t="inlineStr">
+        <is>
+          <t>glorious legplates of the fireflash</t>
+        </is>
+      </c>
+      <c r="C25" s="42" t="inlineStr">
+        <is>
+          <t>Ironwood Lumber</t>
+        </is>
+      </c>
+      <c r="D25" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t>glorious legplates of the quickblade</t>
+        </is>
+      </c>
+      <c r="C26" s="42" t="inlineStr">
+        <is>
+          <t>Ironwood Lumber</t>
+        </is>
+      </c>
+      <c r="D26" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:I2"/>
